--- a/Table2-150loactions .xlsx
+++ b/Table2-150loactions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AAA\OSU\Tornado_proposal\Git\Two_Stage_Robust_Tornado_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B6CE6F-762F-4634-A3FB-872E431AE5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35907486-31DC-4AAA-B05B-228EEC6790AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Best Bound</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Uncertainty Set Check Run Time</t>
   </si>
   <si>
-    <t>100 clusters</t>
-  </si>
-  <si>
     <t>delta 0.375</t>
   </si>
   <si>
@@ -96,6 +93,12 @@
   </si>
   <si>
     <t>Retrofitting cost/Total %</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>150 clusters</t>
   </si>
 </sst>
 </file>
@@ -306,9 +309,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -318,9 +318,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,6 +340,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -628,15 +631,14 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.453125" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
@@ -651,25 +653,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -696,146 +698,266 @@
         <v>9</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="27">
+      <c r="A4" s="25">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="C4" s="10">
+        <v>14850</v>
+      </c>
+      <c r="D4" s="5">
+        <v>14850</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>674.3</v>
+      </c>
+      <c r="G4" s="15">
+        <v>2</v>
+      </c>
+      <c r="H4" s="16">
+        <v>674.1</v>
+      </c>
+      <c r="I4" s="10">
+        <v>74</v>
+      </c>
+      <c r="J4" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="K4" s="10">
+        <v>7</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="28"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="23"/>
+        <v>14</v>
+      </c>
+      <c r="C5" s="11">
+        <v>12167</v>
+      </c>
+      <c r="D5" s="29">
+        <v>12256</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="28">
+        <v>2272.23</v>
+      </c>
+      <c r="G5" s="28">
+        <v>5</v>
+      </c>
+      <c r="H5" s="17">
+        <v>2270.83</v>
+      </c>
+      <c r="I5" s="11">
+        <v>113</v>
+      </c>
+      <c r="J5" s="7">
+        <v>18.48</v>
+      </c>
+      <c r="K5" s="11">
+        <v>34</v>
+      </c>
+      <c r="L5" s="7">
+        <v>5.27</v>
+      </c>
+      <c r="M5" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="N5" s="21">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="29"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26"/>
+        <v>15</v>
+      </c>
+      <c r="C6" s="12">
+        <v>11848</v>
+      </c>
+      <c r="D6" s="8">
+        <v>11945</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="18">
+        <v>2274.7600000000002</v>
+      </c>
+      <c r="G6" s="18">
+        <v>4</v>
+      </c>
+      <c r="H6" s="19">
+        <v>2273.09</v>
+      </c>
+      <c r="I6" s="12">
+        <v>123</v>
+      </c>
+      <c r="J6" s="9">
+        <v>21.73</v>
+      </c>
+      <c r="K6" s="12">
+        <v>35</v>
+      </c>
+      <c r="L6" s="9">
+        <v>6.51</v>
+      </c>
+      <c r="M6" s="23">
+        <v>0.43</v>
+      </c>
+      <c r="N6" s="24">
+        <v>0.56999999999999995</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
-        <v>17</v>
+      <c r="A7" s="25" t="s">
+        <v>16</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="C7" s="10">
+        <v>15989</v>
+      </c>
+      <c r="D7" s="5">
+        <v>15989</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>595.13</v>
+      </c>
+      <c r="G7" s="15">
+        <v>2</v>
+      </c>
+      <c r="H7" s="16">
+        <v>594.65</v>
+      </c>
+      <c r="I7" s="10">
+        <v>53</v>
+      </c>
+      <c r="J7" s="6">
+        <v>15.34</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="28"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="23"/>
+        <v>14</v>
+      </c>
+      <c r="C8" s="11">
+        <v>13060</v>
+      </c>
+      <c r="D8" s="29">
+        <v>13142</v>
+      </c>
+      <c r="E8" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="F8" s="28">
+        <v>1326.18</v>
+      </c>
+      <c r="G8" s="28">
+        <v>4</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1325.13</v>
+      </c>
+      <c r="I8" s="11">
+        <v>95</v>
+      </c>
+      <c r="J8" s="7">
+        <v>15.67</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="20">
+        <v>0.77</v>
+      </c>
+      <c r="N8" s="21">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="29"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="12">
-        <v>13825</v>
+        <v>12736</v>
       </c>
       <c r="D9" s="8">
-        <v>13839</v>
+        <v>12757</v>
       </c>
       <c r="E9" s="8">
         <v>0</v>
       </c>
-      <c r="F9" s="19">
-        <v>985.83</v>
-      </c>
-      <c r="G9" s="19">
-        <v>3</v>
-      </c>
-      <c r="H9" s="20">
-        <v>985.27</v>
+      <c r="F9" s="18">
+        <v>1208.3800000000001</v>
+      </c>
+      <c r="G9" s="18">
+        <v>4</v>
+      </c>
+      <c r="H9" s="19">
+        <v>1207.6500000000001</v>
       </c>
       <c r="I9" s="12">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="J9" s="9">
-        <v>5.23</v>
-      </c>
-      <c r="K9" s="8">
+        <v>19.53</v>
+      </c>
+      <c r="K9" s="12">
         <v>0</v>
       </c>
       <c r="L9" s="9">
         <v>0</v>
       </c>
-      <c r="M9" s="25">
-        <v>0.35</v>
-      </c>
-      <c r="N9" s="26">
-        <v>0.62</v>
+      <c r="M9" s="23">
+        <v>0.38</v>
+      </c>
+      <c r="N9" s="24">
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>

--- a/Table2-150loactions .xlsx
+++ b/Table2-150loactions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AAA\OSU\Tornado_proposal\Git\Two_Stage_Robust_Tornado_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35907486-31DC-4AAA-B05B-228EEC6790AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71271A97-78BE-4D28-9C18-72D1DA021982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,6 +333,9 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -340,12 +343,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,7 +628,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -668,10 +665,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -705,7 +702,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="25">
+      <c r="A4" s="26">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -749,23 +746,23 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="26"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="11">
         <v>12167</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="3">
         <v>12256</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="3">
         <v>0.01</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="25">
         <v>2272.23</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="25">
         <v>5</v>
       </c>
       <c r="H5" s="17">
@@ -791,7 +788,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
@@ -833,7 +830,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -877,23 +874,23 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="26"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="11">
         <v>13060</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="3">
         <v>13142</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="3">
         <v>0.01</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="25">
         <v>1326.18</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="25">
         <v>4</v>
       </c>
       <c r="H8" s="17">
@@ -919,7 +916,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="27"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
